--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,29 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pyworkspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E662715-1104-444A-A3F0-AA7E6145FE9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48671F9E-CA7B-4EB9-8B33-1754C853CA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="3" r:id="rId1"/>
     <sheet name="GS" sheetId="1" r:id="rId2"/>
     <sheet name="Akuna" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>#</t>
   </si>
@@ -487,6 +497,54 @@
   </si>
   <si>
     <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +574,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -560,10 +625,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,9 +667,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,6 +685,2261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Complete</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5886325267304444E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-939D-4B73-BF1D-83D26081FF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4655172413793108E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-939D-4B73-BF1D-83D26081FF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.282051282051282E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-939D-4B73-BF1D-83D26081FF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0610079575596816E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-939D-4B73-BF1D-83D26081FF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1016982208"/>
+        <c:axId val="1016981880"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1016982208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016981880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1016981880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016982208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Complete</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> #</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total #</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy #</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium #</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard #</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="847947240"/>
+        <c:axId val="847949864"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="847947240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847949864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="847949864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847947240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E366E85-5055-4471-9655-3924D1D0DCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950ACA29-F1A3-4146-A48D-9532C90D6861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,11 +3207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B7B66D-011E-4D1B-AC2F-2C5C53A1B819}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,4 +4088,154 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2A69-420F-4346-8F8A-01973B865F7F}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>44197</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <f>B2/$M$1</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <f>F2/$M$3</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <f>H2/$M$4</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>44258</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3" s="14">
+        <f>B3/$M$1</f>
+        <v>2.5886325267304444E-2</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14">
+        <f>D3/$M$2</f>
+        <v>6.4655172413793108E-2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14">
+        <f>F3/$M$3</f>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14">
+        <f>H3/$M$4</f>
+        <v>1.0610079575596816E-2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pyworkspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48671F9E-CA7B-4EB9-8B33-1754C853CA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6EB4D9-8503-4310-ACB0-999DF2EBDF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="3" r:id="rId1"/>
     <sheet name="GS" sheetId="1" r:id="rId2"/>
     <sheet name="Akuna" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="progress" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$1:$K$1</definedName>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t>#</t>
   </si>
@@ -440,10 +431,6 @@
   </si>
   <si>
     <t>sorting，pigeon hole分析大于小于情况，做binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不停给set加，看set长度有没有变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dynamic programming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看答案里的dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,6 +528,180 @@
   </si>
   <si>
     <t>Hard %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次都看两个list的同位，进位问题。Recursive append</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy merge, recursive/iterative两种写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不停给set (hash table)加，看set有没有重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不停给set (hash table)加，看set长度有没有变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd's Tortoise and Hare，相当于cycle是否存在问题
+https://blog.csdn.net/u013832707/article/details/103469112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要getMin也要O(1)，就不可以用heap，binary search tree。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用另外一个stack记录到这一层为止的min_val。只要最上面的值不变，下面每一层的min_val都是不变的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decode String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack记录括号外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack记录括号外，很多特殊情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全用stack。每个符号都先pop，计算，再push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack里记录的值是单调减的。stack记录loc和value。有new high就把stack pop一遍，直到没有new high。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack, two pointer, dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存多少水取决于左边的max，右边的max。从左扫一遍cummax，left_max；从右扫一遍cummax，right_max。水量就是min(left_max[i,] righ_max[i])-val[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack放（字母，累积数目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop Time complexity: Amortized O(1), Worst-case O(n).
+两个stack，一个正常push，需要pop的话，就把stack1倒到stack2，然后stack2去pop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +883,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> %</a:t>
+              <a:t> #</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -772,11 +929,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>progress!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total %</c:v>
+                  <c:v>Total #</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,30 +952,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>progress!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5886325267304444E-2</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +1007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-939D-4B73-BF1D-83D26081FF26}"/>
+              <c16:uniqueId val="{00000000-7CDB-4887-9AC8-ACDDA784C561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -835,11 +1016,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>progress!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Easy %</c:v>
+                  <c:v>Easy #</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,30 +1039,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>progress!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4655172413793108E-2</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +1094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-939D-4B73-BF1D-83D26081FF26}"/>
+              <c16:uniqueId val="{00000001-7CDB-4887-9AC8-ACDDA784C561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -898,11 +1103,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>progress!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medium %</c:v>
+                  <c:v>Medium #</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -921,30 +1126,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>progress!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.282051282051282E-2</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +1181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-939D-4B73-BF1D-83D26081FF26}"/>
+              <c16:uniqueId val="{00000002-7CDB-4887-9AC8-ACDDA784C561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -961,11 +1190,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>progress!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hard %</c:v>
+                  <c:v>Hard #</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,30 +1213,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>progress!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0610079575596816E-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1268,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-939D-4B73-BF1D-83D26081FF26}"/>
+              <c16:uniqueId val="{00000003-7CDB-4887-9AC8-ACDDA784C561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1028,18 +1281,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1016982208"/>
-        <c:axId val="1016981880"/>
+        <c:axId val="864287616"/>
+        <c:axId val="864296800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1016982208"/>
+        <c:axId val="864287616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1075,14 +1328,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1016981880"/>
+        <c:crossAx val="864296800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1016981880"/>
+        <c:axId val="864296800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1355,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1133,7 +1386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1016982208"/>
+        <c:crossAx val="864287616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,7 +1512,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> #</a:t>
+              <a:t> %</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -1305,11 +1558,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>progress!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total #</c:v>
+                  <c:v>Total %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,30 +1581,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>progress!$H$2:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>2.5886325267304444E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8137310073157007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8137310073157007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2639279684862126E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+              <c16:uniqueId val="{00000000-143F-4B92-9C78-BB9CC22C1D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1368,11 +1639,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>progress!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Easy #</c:v>
+                  <c:v>Easy %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1391,30 +1662,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>progress!$I$2:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>6.4377682403433473E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0815450643776826E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0815450643776826E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5107296137339061E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+              <c16:uniqueId val="{00000001-143F-4B92-9C78-BB9CC22C1D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1431,11 +1720,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>progress!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medium #</c:v>
+                  <c:v>Medium %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1454,30 +1743,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:f>progress!$J$2:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>1.2738853503184714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3800424628450107E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3800424628450107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8046709129511677E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,7 +1792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+              <c16:uniqueId val="{00000002-143F-4B92-9C78-BB9CC22C1D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1494,11 +1801,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>progress!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hard #</c:v>
+                  <c:v>Hard %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1517,30 +1824,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>progress!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:f>progress!$K$2:$K$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.0554089709762533E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0554089709762533E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0554089709762533E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5831134564643801E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EE2C-4C3B-BBAD-BDC0083DEDE0}"/>
+              <c16:uniqueId val="{00000003-143F-4B92-9C78-BB9CC22C1D09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1561,18 +1886,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="847947240"/>
-        <c:axId val="847949864"/>
+        <c:axId val="850803000"/>
+        <c:axId val="850803328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="847947240"/>
+        <c:axId val="850803000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1608,14 +1933,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="847949864"/>
+        <c:crossAx val="850803328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="847949864"/>
+        <c:axId val="850803328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1960,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1666,7 +1991,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="847947240"/>
+        <c:crossAx val="850803000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2869,23 +3194,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E366E85-5055-4471-9655-3924D1D0DCB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84DBD2C-53E8-4F34-A632-3A25D3C6DF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,23 +3230,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950ACA29-F1A3-4146-A48D-9532C90D6861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613E5F31-3B26-4B13-A486-40D451F578DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,19 +3530,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B7B66D-011E-4D1B-AC2F-2C5C53A1B819}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="8" bestFit="1" customWidth="1"/>
@@ -3243,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3268,285 +3593,535 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>3</v>
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>50</v>
+      <c r="A8" s="7">
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>115</v>
+        <v>150</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>56</v>
+      <c r="A10" s="11">
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="E10" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>69</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>83</v>
+      <c r="A12" s="12">
+        <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>146</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>83</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>121</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>141</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>146</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>155</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>206</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>224</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>227</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>232</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>234</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>278</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="27" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>287</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="G27" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>322</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>346</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>349</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>350</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>394</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>704</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>739</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>1209</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>349</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>350</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>704</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>93</v>
+      <c r="E35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +4453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0E8EC-B4A5-4EF6-A630-BD4A82AA1F5F}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4092,145 +4667,317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2A69-420F-4346-8F8A-01973B865F7F}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="13" t="str">
+        <f>A1</f>
+        <v>Date</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1">
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1">
         <v>1777</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>44197</v>
       </c>
       <c r="B2">
+        <f>SUM(C2:E2)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="14">
-        <f>B2/$M$1</f>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
-        <f>D2/$M$2</f>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G7" si="0">A2</f>
+        <v>44197</v>
+      </c>
+      <c r="H2" s="14">
+        <f t="shared" ref="H2:H7" si="1">B2/$O$1</f>
         <v>0</v>
       </c>
-      <c r="G2" s="14">
-        <f>F2/$M$3</f>
+      <c r="I2" s="14">
+        <f>C2/$O$2</f>
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="J2" s="14">
+        <f>D2/$O$3</f>
         <v>0</v>
       </c>
-      <c r="I2" s="14">
-        <f>H2/$M$4</f>
+      <c r="K2" s="14">
+        <f>E2/$O$4</f>
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>71</v>
       </c>
-      <c r="M2">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>44258</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B7" si="2">SUM(C3:E3)</f>
         <v>46</v>
       </c>
-      <c r="C3" s="14">
-        <f>B3/$M$1</f>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="0"/>
+        <v>44258</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" si="1"/>
         <v>2.5886325267304444E-2</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="14">
-        <f>D3/$M$2</f>
-        <v>6.4655172413793108E-2</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14">
-        <f>F3/$M$3</f>
-        <v>1.282051282051282E-2</v>
-      </c>
-      <c r="H3">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I8" si="3">C3/$O$2</f>
+        <v>6.4377682403433473E-2</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J7" si="4">D3/$O$3</f>
+        <v>1.2738853503184714E-2</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" ref="K3:K7" si="5">E3/$O$4</f>
+        <v>1.0554089709762533E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>44259</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="I3" s="14">
-        <f>H3/$M$4</f>
-        <v>1.0610079575596816E-2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4">
-        <v>377</v>
+      <c r="G4" s="13">
+        <f t="shared" si="0"/>
+        <v>44259</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8137310073157007E-2</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="3"/>
+        <v>7.0815450643776826E-2</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3800424628450107E-2</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="5"/>
+        <v>1.0554089709762533E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44260</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>44260</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8137310073157007E-2</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="3"/>
+        <v>7.0815450643776826E-2</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3800424628450107E-2</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="5"/>
+        <v>1.0554089709762533E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44263</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>44263</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>3.2639279684862126E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="3"/>
+        <v>7.5107296137339061E-2</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="4"/>
+        <v>1.8046709129511677E-2</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="5"/>
+        <v>1.5831134564643801E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44264</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>44264</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>3.3202025886325266E-2</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="3"/>
+        <v>7.7253218884120178E-2</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="4"/>
+        <v>1.8046709129511677E-2</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="5"/>
+        <v>1.5831134564643801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I8" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pyworkspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6EB4D9-8503-4310-ACB0-999DF2EBDF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D7C4FD-C981-4973-B4D2-C4B5FD9D28B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="GS" sheetId="1" r:id="rId2"/>
     <sheet name="Akuna" sheetId="2" r:id="rId3"/>
     <sheet name="progress" sheetId="4" r:id="rId4"/>
+    <sheet name="topics" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$1:$K$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
   <si>
     <t>#</t>
   </si>
@@ -475,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看答案里的dp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,6 +699,330 @@
   <si>
     <t>Pop Time complexity: Amortized O(1), Worst-case O(n).
 两个stack，一个正常push，需要pop的话，就把stack1倒到stack2，然后stack2去pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree, dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive看每个node是不是binary tree。把每个recurve的结果保存最大，最小值，上浮和node比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree, bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Counter，再heapq.nlargest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python用Counter里的most_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list, two pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历一遍计list长度，再遍历一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次用stack，再pop N个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个指针，第一个永远比第二个多N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向链表，不知道前一个node，所以只能把下一个node值填过来，然后把下一个node删掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap, sliding window, deque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用heap，那么heap[0]就是最大值，但是heap插入是nlog(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[i]=min(dp[i-coin1], dp[i-coin2], …)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/sinat_15723179/article/details/82183985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive, dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有限制顺序，所以可以bfs也可以dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide and conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下角扫到右上角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs遍历树，记录p,q两点的路径。再抽取相同路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap, sort, divide and conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack用来bfs遍历树，dict用来存node-parent(node)的关系。然后找出p的所有parent放在set里。然后找q的parent直到也出现在p的parent里。这时候的q就是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap.nsmallest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide and conquer，快排的partition方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack放括号，剩下的是需要删除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把list合并，再复制random指针，再拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当做图一个个节点，然后遍历。遍历过的新节点就放起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum With Multiplicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter，然后分情况计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Smallest Common Element in All Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash table, binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个row都放在set里，intersection取最小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +1030,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,8 +1061,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,19 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +1105,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -797,13 +1121,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -815,21 +1139,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -952,10 +1280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$7</c:f>
+              <c:f>progress!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -973,16 +1301,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$B$2:$B$7</c:f>
+              <c:f>progress!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1000,6 +1346,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,10 +1403,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$7</c:f>
+              <c:f>progress!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1060,16 +1424,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$C$2:$C$7</c:f>
+              <c:f>progress!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1087,6 +1469,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1526,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$7</c:f>
+              <c:f>progress!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1147,16 +1547,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$D$2:$D$7</c:f>
+              <c:f>progress!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1174,6 +1592,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1649,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$7</c:f>
+              <c:f>progress!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1234,16 +1670,34 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$E$2:$E$7</c:f>
+              <c:f>progress!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1261,6 +1715,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,10 +2053,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$6</c:f>
+              <c:f>progress!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1599,16 +2071,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$H$2:$H$6</c:f>
+              <c:f>progress!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1623,6 +2116,27 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.2639279684862126E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3202025886325266E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3764772087788407E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4327518289251548E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.657850309510411E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7703995498030385E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8829487900956666E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.220596510973551E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,10 +2176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$6</c:f>
+              <c:f>progress!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1680,30 +2194,72 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$I$2:$I$6</c:f>
+              <c:f>progress!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4377682403433473E-2</c:v>
+                  <c:v>6.3694267515923567E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0815450643776826E-2</c:v>
+                  <c:v>7.0063694267515922E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0815450643776826E-2</c:v>
+                  <c:v>7.0063694267515922E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5107296137339061E-2</c:v>
+                  <c:v>7.4309978768577492E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6433121019108277E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6433121019108277E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6433121019108277E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0679405520169847E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0679405520169847E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0679405520169847E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2802547770700632E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,10 +2299,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$6</c:f>
+              <c:f>progress!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1761,30 +2317,72 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$J$2:$J$6</c:f>
+              <c:f>progress!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2738853503184714E-2</c:v>
+                  <c:v>1.2618296529968454E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3800424628450107E-2</c:v>
+                  <c:v>1.3669821240799159E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3800424628450107E-2</c:v>
+                  <c:v>1.3669821240799159E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8046709129511677E-2</c:v>
+                  <c:v>1.7875920084121977E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7875920084121977E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8927444794952682E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9978969505783387E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1030494216614092E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2082018927444796E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4185068349106203E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9442691903259727E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,10 +2422,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$6</c:f>
+              <c:f>progress!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1842,30 +2440,72 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$K$2:$K$6</c:f>
+              <c:f>progress!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0554089709762533E-2</c:v>
+                  <c:v>1.0498687664041995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0554089709762533E-2</c:v>
+                  <c:v>1.0498687664041995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0554089709762533E-2</c:v>
+                  <c:v>1.0498687664041995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5831134564643801E-2</c:v>
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8372703412073491E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0997375328083989E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0997375328083989E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0997375328083989E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3530,13 +4170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B7B66D-011E-4D1B-AC2F-2C5C53A1B819}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3568,7 +4208,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3577,7 +4217,7 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3594,11 +4234,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>101</v>
@@ -3607,7 +4247,7 @@
         <v>122</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3625,7 +4265,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3639,7 +4279,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3656,7 +4296,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3670,464 +4310,813 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>69</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>98</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>102</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>121</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>138</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>141</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>146</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B26" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>155</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>175</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>206</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>224</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>227</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>232</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>234</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>236</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E34" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>237</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>239</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>240</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>278</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F38" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>287</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>297</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>322</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F41" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>346</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>347</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>349</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>350</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>394</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>450</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>617</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>704</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>739</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>923</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>973</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>1198</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>1209</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>50</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>55</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>56</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>69</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>83</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>121</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>141</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>146</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>155</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>206</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>224</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>227</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="E54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>1249</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>234</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>278</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>287</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>322</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>346</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>349</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>350</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>394</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>704</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>739</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>1209</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{1C56C913-064E-423F-843C-70445A14D676}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G36" r:id="rId1" xr:uid="{1A0B9458-2E5B-46D8-B44E-F8E45F0E8738}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4136,7 +5125,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4667,69 +5656,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2A69-420F-4346-8F8A-01973B865F7F}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="13" t="str">
+        <v>135</v>
+      </c>
+      <c r="G1" s="11" t="str">
         <f>A1</f>
         <v>Date</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>137</v>
+      <c r="H1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O1">
         <v>1777</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>44197</v>
       </c>
       <c r="B2">
@@ -4745,23 +5735,23 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G7" si="0">A2</f>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G13" si="0">A2</f>
         <v>44197</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H7" si="1">B2/$O$1</f>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:H13" si="1">B2/$O$1</f>
         <v>0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <f>C2/$O$2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="12">
         <f>D2/$O$3</f>
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <f>E2/$O$4</f>
         <v>0</v>
       </c>
@@ -4769,15 +5759,15 @@
         <v>71</v>
       </c>
       <c r="O2">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>44258</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="2">SUM(C3:E3)</f>
+        <f t="shared" ref="B3:B13" si="2">SUM(C3:E3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -4789,35 +5779,35 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <f t="shared" si="0"/>
         <v>44258</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f t="shared" si="1"/>
         <v>2.5886325267304444E-2</v>
       </c>
-      <c r="I3" s="14">
-        <f t="shared" ref="I3:I8" si="3">C3/$O$2</f>
-        <v>6.4377682403433473E-2</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J7" si="4">D3/$O$3</f>
-        <v>1.2738853503184714E-2</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" ref="K3:K7" si="5">E3/$O$4</f>
-        <v>1.0554089709762533E-2</v>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I13" si="3">C3/$O$2</f>
+        <v>6.3694267515923567E-2</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J13" si="4">D3/$O$3</f>
+        <v>1.2618296529968454E-2</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K13" si="5">E3/$O$4</f>
+        <v>1.0498687664041995E-2</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O3">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>44259</v>
       </c>
       <c r="B4">
@@ -4833,35 +5823,35 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>44259</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f t="shared" si="1"/>
         <v>2.8137310073157007E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <f t="shared" si="3"/>
-        <v>7.0815450643776826E-2</v>
-      </c>
-      <c r="J4" s="14">
+        <v>7.0063694267515922E-2</v>
+      </c>
+      <c r="J4" s="12">
         <f t="shared" si="4"/>
-        <v>1.3800424628450107E-2</v>
-      </c>
-      <c r="K4" s="14">
+        <v>1.3669821240799159E-2</v>
+      </c>
+      <c r="K4" s="12">
         <f t="shared" si="5"/>
-        <v>1.0554089709762533E-2</v>
+        <v>1.0498687664041995E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>44260</v>
       </c>
       <c r="B5">
@@ -4877,29 +5867,29 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>44260</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <f t="shared" si="1"/>
         <v>2.8137310073157007E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f t="shared" si="3"/>
-        <v>7.0815450643776826E-2</v>
-      </c>
-      <c r="J5" s="14">
+        <v>7.0063694267515922E-2</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="4"/>
-        <v>1.3800424628450107E-2</v>
-      </c>
-      <c r="K5" s="14">
+        <v>1.3669821240799159E-2</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="5"/>
-        <v>1.0554089709762533E-2</v>
+        <v>1.0498687664041995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>44263</v>
       </c>
       <c r="B6">
@@ -4915,29 +5905,29 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>44263</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>3.2639279684862126E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f t="shared" si="3"/>
-        <v>7.5107296137339061E-2</v>
-      </c>
-      <c r="J6" s="14">
+        <v>7.4309978768577492E-2</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="4"/>
-        <v>1.8046709129511677E-2</v>
-      </c>
-      <c r="K6" s="14">
+        <v>1.7875920084121977E-2</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="5"/>
-        <v>1.5831134564643801E-2</v>
+        <v>1.5748031496062992E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>44264</v>
       </c>
       <c r="B7">
@@ -4953,31 +5943,253 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>44264</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>3.3202025886325266E-2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="3"/>
-        <v>7.7253218884120178E-2</v>
-      </c>
-      <c r="J7" s="14">
+        <v>7.6433121019108277E-2</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="4"/>
-        <v>1.8046709129511677E-2</v>
-      </c>
-      <c r="K7" s="14">
+        <v>1.7875920084121977E-2</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="5"/>
-        <v>1.5831134564643801E-2</v>
+        <v>1.5748031496062992E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I8" s="14">
+      <c r="A8" s="11">
+        <v>44266</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>44266</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>3.3764772087788407E-2</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.6433121019108277E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="4"/>
+        <v>1.8927444794952682E-2</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="5"/>
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>44270</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>44270</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4327518289251548E-2</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="3"/>
+        <v>7.6433121019108277E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.9978969505783387E-2</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="5"/>
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>44273</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>44273</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>3.657850309510411E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="3"/>
+        <v>8.0679405520169847E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="4"/>
+        <v>2.1030494216614092E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="5"/>
+        <v>1.8372703412073491E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>44274</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>44274</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7703995498030385E-2</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="3"/>
+        <v>8.0679405520169847E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="4"/>
+        <v>2.2082018927444796E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="5"/>
+        <v>2.0997375328083989E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>44277</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>44277</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8829487900956666E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="3"/>
+        <v>8.0679405520169847E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="4"/>
+        <v>2.4185068349106203E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="5"/>
+        <v>2.0997375328083989E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>44278</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>44278</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>4.220596510973551E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="3"/>
+        <v>8.2802547770700632E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9442691903259727E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="5"/>
+        <v>2.0997375328083989E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4985,4 +6197,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F9833-570C-45DC-878A-A024E750C299}">
+  <dimension ref="B1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="16.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pyworkspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D7C4FD-C981-4973-B4D2-C4B5FD9D28B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED3ED6-7277-4A30-831F-0C06201E6E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="topics" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$1:$L$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="329">
   <si>
     <t>#</t>
   </si>
@@ -637,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stack里记录的值是单调减的。stack记录loc和value。有new high就把stack pop一遍，直到没有new high。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trapping Rain Water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,10 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stack, two pointer, dp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,10 +658,6 @@
   </si>
   <si>
     <t>stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack放（字母，累积数目）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,10 +914,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frequent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -950,10 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先把list合并，再复制random指针，再拆分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当做图一个个节点，然后遍历。遍历过的新节点就放起来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,27 +946,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Delete Node in a BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum With Multiplicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter，然后分情况计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Smallest Common Element in All Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash table, binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个row都放在set里，intersection取最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advantage Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array, greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs, bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque实现bfs，从边缘点bfs比边缘点大的。分pacific, atlantic找，最后intersection就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两比较，比较k-1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看当前是不是isMatch(),递归s的左右节点看是不是isSubtree()。isMatch()也递归的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list, heap, divide and conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意连续满足条件的情况，只有不删除时候才curr=curr.next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先各存stack，再逐个pop比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list, hash table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把list上每个node复制，跟在后面，再复制random指针，再拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不给head，给被删的node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先reverse再，像第二题一样add，再reverse。reverse list的写法熟练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green frequent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow frequent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue frequent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack, two pointers, dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack里还要能O(1)取到最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用stack实现queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续凑够k个字母就删掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack每个元素存（字母，累积数目）的配对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先遍历一遍知道长度，再stack做法。空间O(n)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先翻转左边链表，再两个指针不停next对比。空间O(1)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个点开始两个list汇成一个list，找到那个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看list有没有cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制list，且有random指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个list表示两个数从个位开始，相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉所有特定值的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,n]范围内取n+1个数字，找重复的那个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorted array里找数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左上角到右下单调增，每行第一个比上一行最后一个大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把整个矩阵当做一个单调序列，还是普通binary search。只是中点元素是哪个需要算一下对应到矩阵里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行都单调增，找各行交集的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复的最长子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack里记录的值肯定是单调减的。stack记录loc和value。有new high就把stack pop一遍，直到没有new high。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看简便做法板子，四步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有和是target的三个数的总数，多次出现算多次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个矩阵从左往右递增，从上往下递增；给定个数，判断这个数出不出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>binary search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delete Node in a BST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Words in a String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
+    <t>Remove Element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -994,35 +1250,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Combine Two Tables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two pointers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Sum With Multiplicity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counter，然后分情况计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Smallest Common Element in All Rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash table, binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个row都放在set里，intersection取最小</t>
+    <t>array, two pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用额外空间删除list里元素。顺序无所谓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，一个拖后写有效值，一个判断是不是val。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/k-th-element-two-sorted-arrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少墙板穿不过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少能凑够数额的硬币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,6 +1367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1112,7 +1390,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,6 +1430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1280,10 +1561,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$13</c:f>
+              <c:f>progress!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1319,16 +1600,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$B$2:$B$13</c:f>
+              <c:f>progress!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1364,6 +1651,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,10 +1696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$13</c:f>
+              <c:f>progress!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1442,16 +1735,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$C$2:$C$13</c:f>
+              <c:f>progress!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1487,6 +1786,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,10 +1831,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$13</c:f>
+              <c:f>progress!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1565,16 +1870,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$D$2:$D$13</c:f>
+              <c:f>progress!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1610,6 +1921,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,10 +1966,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$A$2:$A$13</c:f>
+              <c:f>progress!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -1688,16 +2005,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$E$2:$E$13</c:f>
+              <c:f>progress!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1733,6 +2056,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,13 +2144,8 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1918,11 +2242,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2053,10 +2375,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$13</c:f>
+              <c:f>progress!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -2092,16 +2414,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$H$2:$H$13</c:f>
+              <c:f>progress!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2137,6 +2465,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.220596510973551E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3894203714124932E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4456949915588073E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,10 +2510,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$13</c:f>
+              <c:f>progress!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -2215,51 +2549,63 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$I$2:$I$13</c:f>
+              <c:f>progress!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3694267515923567E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0063694267515922E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0063694267515922E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4309978768577492E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6433121019108277E-2</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6433121019108277E-2</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6433121019108277E-2</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0679405520169847E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0679405520169847E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0679405520169847E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2802547770700632E-2</c:v>
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,10 +2645,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$13</c:f>
+              <c:f>progress!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -2338,51 +2684,63 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$J$2:$J$13</c:f>
+              <c:f>progress!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2618296529968454E-2</c:v>
+                  <c:v>1.1916583912611719E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3669821240799159E-2</c:v>
+                  <c:v>1.2909632571996028E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3669821240799159E-2</c:v>
+                  <c:v>1.2909632571996028E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7875920084121977E-2</c:v>
+                  <c:v>1.6881827209533268E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7875920084121977E-2</c:v>
+                  <c:v>1.6881827209533268E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8927444794952682E-2</c:v>
+                  <c:v>1.7874875868917579E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9978969505783387E-2</c:v>
+                  <c:v>1.8867924528301886E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1030494216614092E-2</c:v>
+                  <c:v>1.9860973187686197E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2082018927444796E-2</c:v>
+                  <c:v>2.0854021847070508E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4185068349106203E-2</c:v>
+                  <c:v>2.2840119165839126E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9442691903259727E-2</c:v>
+                  <c:v>2.7805362462760674E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9791459781529295E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9791459781529295E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,10 +2780,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>progress!$G$2:$G$13</c:f>
+              <c:f>progress!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44197</c:v>
                 </c:pt>
@@ -2461,51 +2819,63 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>progress!$K$2:$K$13</c:f>
+              <c:f>progress!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0498687664041995E-2</c:v>
+                  <c:v>1.0025062656641603E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0498687664041995E-2</c:v>
+                  <c:v>1.0025062656641603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0498687664041995E-2</c:v>
+                  <c:v>1.0025062656641603E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5748031496062992E-2</c:v>
+                  <c:v>1.5037593984962405E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5748031496062992E-2</c:v>
+                  <c:v>1.5037593984962405E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5748031496062992E-2</c:v>
+                  <c:v>1.5037593984962405E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5748031496062992E-2</c:v>
+                  <c:v>1.5037593984962405E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8372703412073491E-2</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0997375328083989E-2</c:v>
+                  <c:v>2.0050125313283207E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0997375328083989E-2</c:v>
+                  <c:v>2.0050125313283207E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0997375328083989E-2</c:v>
+                  <c:v>2.0050125313283207E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2556390977443608E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2556390977443608E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,12 +2959,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2691,10 +3056,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4170,32 +4532,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B7B66D-011E-4D1B-AC2F-2C5C53A1B819}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="9" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="33.5" style="9" customWidth="1"/>
-    <col min="10" max="11" width="9" style="9"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="6" max="6" width="18.875" style="9" customWidth="1"/>
+    <col min="7" max="10" width="33.5" style="9" customWidth="1"/>
+    <col min="11" max="12" width="9" style="9"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -4208,19 +4571,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4229,15 +4595,15 @@
       <c r="E2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -4247,14 +4613,17 @@
         <v>122</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4263,12 +4632,15 @@
       <c r="E4" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="F4" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4278,791 +4650,851 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>34</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>42</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>50</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>55</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>42</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>50</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>56</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>69</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>74</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="B22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>83</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>98</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>102</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>121</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>138</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="9" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>102</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>121</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>138</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>141</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>146</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>151</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>141</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>146</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="E30" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>155</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>155</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>175</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>206</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>224</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>227</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>150</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>160</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>175</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>203</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>206</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>224</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>227</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+    <row r="38" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
         <v>232</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+    </row>
+    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
         <v>234</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="G39" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>236</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B40" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E40" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+    </row>
+    <row r="41" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
         <v>237</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B41" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>239</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>239</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="H42" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+    </row>
+    <row r="43" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
         <v>240</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B43" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>278</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+    <row r="45" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>287</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F45" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>297</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B46" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
         <v>322</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>346</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <v>347</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>349</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
-        <v>350</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <v>394</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
-        <v>450</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <v>617</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>208</v>
+        <v>346</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
-        <v>704</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>87</v>
+        <v>172</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>347</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
-        <v>739</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>162</v>
+        <v>349</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>350</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>394</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <v>923</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
-        <v>973</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="G52" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
-        <v>1198</v>
-      </c>
-      <c r="B53" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>417</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -5071,52 +5503,249 @@
       <c r="E53" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>445</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="E54" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>450</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>554</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>572</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>617</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>704</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>739</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>870</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>923</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>973</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>1198</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
         <v>1209</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B65" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="E65" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
         <v>1249</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B66" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{1C56C913-064E-423F-843C-70445A14D676}"/>
+  <autoFilter ref="A1:L66" xr:uid="{1C56C913-064E-423F-843C-70445A14D676}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G36" r:id="rId1" xr:uid="{1A0B9458-2E5B-46D8-B44E-F8E45F0E8738}"/>
+    <hyperlink ref="H42" r:id="rId1" xr:uid="{1A0B9458-2E5B-46D8-B44E-F8E45F0E8738}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{EA113FAB-F94F-4508-8ED6-94388E6A09A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5656,10 +6285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2A69-420F-4346-8F8A-01973B865F7F}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5736,11 +6365,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f t="shared" ref="G2:G13" si="0">A2</f>
+        <f t="shared" ref="G2:G17" si="0">A2</f>
         <v>44197</v>
       </c>
       <c r="H2" s="12">
-        <f t="shared" ref="H2:H13" si="1">B2/$O$1</f>
+        <f t="shared" ref="H2:H17" si="1">B2/$O$1</f>
         <v>0</v>
       </c>
       <c r="I2" s="12">
@@ -5759,7 +6388,7 @@
         <v>71</v>
       </c>
       <c r="O2">
-        <v>471</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5767,7 +6396,7 @@
         <v>44258</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="2">SUM(C3:E3)</f>
+        <f t="shared" ref="B3:B17" si="2">SUM(C3:E3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -5788,22 +6417,22 @@
         <v>2.5886325267304444E-2</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I13" si="3">C3/$O$2</f>
-        <v>6.3694267515923567E-2</v>
+        <f t="shared" ref="I3:I17" si="3">C3/$O$2</f>
+        <v>0.06</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J13" si="4">D3/$O$3</f>
-        <v>1.2618296529968454E-2</v>
+        <f t="shared" ref="J3:J17" si="4">D3/$O$3</f>
+        <v>1.1916583912611719E-2</v>
       </c>
       <c r="K3" s="12">
-        <f t="shared" ref="K3:K13" si="5">E3/$O$4</f>
-        <v>1.0498687664041995E-2</v>
+        <f t="shared" ref="K3:K17" si="5">E3/$O$4</f>
+        <v>1.0025062656641603E-2</v>
       </c>
       <c r="N3" t="s">
         <v>127</v>
       </c>
       <c r="O3">
-        <v>951</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -5833,21 +6462,21 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="3"/>
-        <v>7.0063694267515922E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="4"/>
-        <v>1.3669821240799159E-2</v>
+        <v>1.2909632571996028E-2</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="5"/>
-        <v>1.0498687664041995E-2</v>
+        <v>1.0025062656641603E-2</v>
       </c>
       <c r="N4" t="s">
         <v>128</v>
       </c>
       <c r="O4">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -5877,15 +6506,15 @@
       </c>
       <c r="I5" s="12">
         <f t="shared" si="3"/>
-        <v>7.0063694267515922E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="4"/>
-        <v>1.3669821240799159E-2</v>
+        <v>1.2909632571996028E-2</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="5"/>
-        <v>1.0498687664041995E-2</v>
+        <v>1.0025062656641603E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5915,15 +6544,15 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" si="3"/>
-        <v>7.4309978768577492E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="4"/>
-        <v>1.7875920084121977E-2</v>
+        <v>1.6881827209533268E-2</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -5953,15 +6582,15 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" si="3"/>
-        <v>7.6433121019108277E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="4"/>
-        <v>1.7875920084121977E-2</v>
+        <v>1.6881827209533268E-2</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5991,15 +6620,15 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="3"/>
-        <v>7.6433121019108277E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="4"/>
-        <v>1.8927444794952682E-2</v>
+        <v>1.7874875868917579E-2</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -6029,15 +6658,15 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" si="3"/>
-        <v>7.6433121019108277E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="4"/>
-        <v>1.9978969505783387E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -6067,15 +6696,15 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" si="3"/>
-        <v>8.0679405520169847E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="4"/>
-        <v>2.1030494216614092E-2</v>
+        <v>1.9860973187686197E-2</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>1.8372703412073491E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -6105,15 +6734,15 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" si="3"/>
-        <v>8.0679405520169847E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="4"/>
-        <v>2.2082018927444796E-2</v>
+        <v>2.0854021847070508E-2</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="5"/>
-        <v>2.0997375328083989E-2</v>
+        <v>2.0050125313283207E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -6143,15 +6772,15 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" si="3"/>
-        <v>8.0679405520169847E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="4"/>
-        <v>2.4185068349106203E-2</v>
+        <v>2.2840119165839126E-2</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="5"/>
-        <v>2.0997375328083989E-2</v>
+        <v>2.0050125313283207E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -6181,15 +6810,167 @@
       </c>
       <c r="I13" s="12">
         <f t="shared" si="3"/>
-        <v>8.2802547770700632E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="4"/>
-        <v>2.9442691903259727E-2</v>
+        <v>2.7805362462760674E-2</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="5"/>
-        <v>2.0997375328083989E-2</v>
+        <v>2.0050125313283207E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>44280</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>44280</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3894203714124932E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="3"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9791459781529295E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="5"/>
+        <v>2.2556390977443608E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>44292</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>44292</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>4.4456949915588073E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9791459781529295E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>2.2556390977443608E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>44364</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>44364</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5582442318514348E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9791459781529295E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
+        <v>2.2556390977443608E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>44369</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>44369</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6145188519977488E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="4"/>
+        <v>3.0784508440913606E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
+        <v>2.2556390977443608E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6201,100 +6982,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F9833-570C-45DC-878A-A024E750C299}">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="16.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="15"/>
+    <col min="3" max="3" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
